--- a/Student Required Attendance.xlsx
+++ b/Student Required Attendance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Creativity 2\Misc Python Projects\Coding Temple\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E94F55DF-E0A2-4470-A437-275D2081B15C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF9270C-AD10-4691-80F6-33D9AACDBA07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{04054B26-619A-4311-88A4-94D6B79206CF}"/>
+    <workbookView xWindow="2100" yWindow="1725" windowWidth="21600" windowHeight="11385" xr2:uid="{04054B26-619A-4311-88A4-94D6B79206CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,8 +35,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Sergeant Wiley</author>
+  </authors>
+  <commentList>
+    <comment ref="H21" authorId="0" shapeId="0" xr:uid="{F5EEC45E-CFAA-4500-8325-9C5FFD3470FB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Sergeant Wiley:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Why are you at the school?</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>1. Emma Johnson</t>
   </si>
@@ -106,18 +140,40 @@
   <si>
     <t>MUST BE UNIVERSITY. THERE ARE NO BREAKS</t>
   </si>
+  <si>
+    <t>Teachers Comments</t>
+  </si>
+  <si>
+    <t>Where did he go? Did anyone fill a missing report?</t>
+  </si>
+  <si>
+    <t>Why are you in my classroom in the weekend? (6-7th)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -190,7 +246,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -201,6 +286,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -519,17 +608,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9F0BC5B-900E-43F6-B6D5-072124A55E9B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9F0BC5B-900E-43F6-B6D5-072124A55E9B}">
   <dimension ref="A1:AL24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:B24"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="62.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -544,7 +634,7 @@
         <v>45384</v>
       </c>
       <c r="E1" s="1">
-        <f t="shared" ref="E1:AL1" si="0">+D1+1</f>
+        <f t="shared" ref="E1:AF1" si="0">+D1+1</f>
         <v>45385</v>
       </c>
       <c r="F1" s="1">
@@ -655,7 +745,9 @@
         <f t="shared" si="0"/>
         <v>45412</v>
       </c>
-      <c r="AG1" s="1"/>
+      <c r="AG1" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="AH1" s="1"/>
       <c r="AI1" s="1"/>
       <c r="AJ1" s="1"/>
@@ -682,10 +774,10 @@
         <v>1</v>
       </c>
       <c r="H2" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" s="2" t="b">
         <v>1</v>
@@ -703,10 +795,10 @@
         <v>1</v>
       </c>
       <c r="O2" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="2" t="b">
         <v>1</v>
@@ -733,10 +825,10 @@
         <v>1</v>
       </c>
       <c r="Y2" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA2" s="2" t="b">
         <v>1</v>
@@ -754,7 +846,7 @@
         <v>1</v>
       </c>
       <c r="AF2" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.25">
@@ -777,10 +869,10 @@
         <v>1</v>
       </c>
       <c r="H3" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" s="3" t="b">
         <v>1</v>
@@ -798,10 +890,10 @@
         <v>1</v>
       </c>
       <c r="O3" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="3" t="b">
         <v>1</v>
@@ -828,10 +920,10 @@
         <v>1</v>
       </c>
       <c r="Y3" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA3" s="3" t="b">
         <v>1</v>
@@ -849,7 +941,7 @@
         <v>1</v>
       </c>
       <c r="AF3" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.25">
@@ -872,10 +964,10 @@
         <v>1</v>
       </c>
       <c r="H4" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="3" t="b">
         <v>1</v>
@@ -893,10 +985,10 @@
         <v>1</v>
       </c>
       <c r="O4" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="3" t="b">
         <v>1</v>
@@ -923,10 +1015,10 @@
         <v>1</v>
       </c>
       <c r="Y4" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA4" s="3" t="b">
         <v>1</v>
@@ -944,7 +1036,7 @@
         <v>1</v>
       </c>
       <c r="AF4" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.25">
@@ -955,7 +1047,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="3" t="b">
         <v>1</v>
@@ -967,10 +1059,10 @@
         <v>1</v>
       </c>
       <c r="H5" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" s="3" t="b">
         <v>1</v>
@@ -988,10 +1080,10 @@
         <v>1</v>
       </c>
       <c r="O5" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="3" t="b">
         <v>1</v>
@@ -1006,7 +1098,7 @@
         <v>1</v>
       </c>
       <c r="U5" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V5" s="3" t="b">
         <v>1</v>
@@ -1018,10 +1110,10 @@
         <v>1</v>
       </c>
       <c r="Y5" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA5" s="3" t="b">
         <v>1</v>
@@ -1036,10 +1128,10 @@
         <v>1</v>
       </c>
       <c r="AE5" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF5" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.25">
@@ -1050,7 +1142,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="3" t="b">
         <v>1</v>
@@ -1062,10 +1154,10 @@
         <v>1</v>
       </c>
       <c r="H6" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" s="3" t="b">
         <v>1</v>
@@ -1083,10 +1175,10 @@
         <v>1</v>
       </c>
       <c r="O6" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="3" t="b">
         <v>1</v>
@@ -1113,10 +1205,10 @@
         <v>1</v>
       </c>
       <c r="Y6" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA6" s="3" t="b">
         <v>1</v>
@@ -1134,7 +1226,7 @@
         <v>1</v>
       </c>
       <c r="AF6" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.25">
@@ -1148,7 +1240,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="3" t="b">
         <v>1</v>
@@ -1157,34 +1249,34 @@
         <v>1</v>
       </c>
       <c r="H7" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" s="3" t="b">
         <v>1</v>
       </c>
       <c r="K7" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" s="3" t="b">
         <v>1</v>
       </c>
       <c r="M7" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7" s="3" t="b">
         <v>1</v>
@@ -1208,16 +1300,16 @@
         <v>1</v>
       </c>
       <c r="Y7" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA7" s="3" t="b">
         <v>1</v>
       </c>
       <c r="AB7" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="3" t="b">
         <v>1</v>
@@ -1229,7 +1321,7 @@
         <v>1</v>
       </c>
       <c r="AF7" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.25">
@@ -1240,7 +1332,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="3" t="b">
         <v>1</v>
@@ -1252,10 +1344,10 @@
         <v>1</v>
       </c>
       <c r="H8" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="3" t="b">
         <v>1</v>
@@ -1273,10 +1365,10 @@
         <v>1</v>
       </c>
       <c r="O8" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="3" t="b">
         <v>1</v>
@@ -1303,10 +1395,10 @@
         <v>1</v>
       </c>
       <c r="Y8" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA8" s="3" t="b">
         <v>1</v>
@@ -1324,7 +1416,7 @@
         <v>1</v>
       </c>
       <c r="AF8" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.25">
@@ -1347,10 +1439,10 @@
         <v>1</v>
       </c>
       <c r="H9" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" s="3" t="b">
         <v>1</v>
@@ -1368,10 +1460,10 @@
         <v>1</v>
       </c>
       <c r="O9" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="3" t="b">
         <v>1</v>
@@ -1398,10 +1490,10 @@
         <v>1</v>
       </c>
       <c r="Y9" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA9" s="3" t="b">
         <v>1</v>
@@ -1419,7 +1511,7 @@
         <v>1</v>
       </c>
       <c r="AF9" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.25">
@@ -1430,7 +1522,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="3" t="b">
         <v>1</v>
@@ -1442,10 +1534,10 @@
         <v>1</v>
       </c>
       <c r="H10" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="3" t="b">
         <v>1</v>
@@ -1463,10 +1555,10 @@
         <v>1</v>
       </c>
       <c r="O10" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="3" t="b">
         <v>1</v>
@@ -1493,10 +1585,10 @@
         <v>1</v>
       </c>
       <c r="Y10" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA10" s="3" t="b">
         <v>1</v>
@@ -1514,7 +1606,7 @@
         <v>1</v>
       </c>
       <c r="AF10" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.25">
@@ -1537,16 +1629,16 @@
         <v>1</v>
       </c>
       <c r="H11" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" s="3" t="b">
         <v>1</v>
       </c>
       <c r="K11" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" s="3" t="b">
         <v>1</v>
@@ -1558,10 +1650,10 @@
         <v>1</v>
       </c>
       <c r="O11" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="3" t="b">
         <v>1</v>
@@ -1573,7 +1665,7 @@
         <v>1</v>
       </c>
       <c r="T11" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U11" s="3" t="b">
         <v>1</v>
@@ -1588,10 +1680,10 @@
         <v>1</v>
       </c>
       <c r="Y11" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA11" s="3" t="b">
         <v>1</v>
@@ -1609,7 +1701,7 @@
         <v>1</v>
       </c>
       <c r="AF11" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.25">
@@ -1632,10 +1724,10 @@
         <v>1</v>
       </c>
       <c r="H12" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" s="3" t="b">
         <v>1</v>
@@ -1653,10 +1745,10 @@
         <v>1</v>
       </c>
       <c r="O12" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="3" t="b">
         <v>1</v>
@@ -1683,10 +1775,10 @@
         <v>1</v>
       </c>
       <c r="Y12" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA12" s="3" t="b">
         <v>1</v>
@@ -1704,7 +1796,7 @@
         <v>1</v>
       </c>
       <c r="AF12" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.25">
@@ -1727,10 +1819,10 @@
         <v>1</v>
       </c>
       <c r="H13" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" s="3" t="b">
         <v>1</v>
@@ -1748,10 +1840,10 @@
         <v>1</v>
       </c>
       <c r="O13" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="3" t="b">
         <v>1</v>
@@ -1778,10 +1870,10 @@
         <v>1</v>
       </c>
       <c r="Y13" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA13" s="3" t="b">
         <v>1</v>
@@ -1799,7 +1891,7 @@
         <v>1</v>
       </c>
       <c r="AF13" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.25">
@@ -1810,7 +1902,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="b">
         <v>1</v>
@@ -1822,10 +1914,10 @@
         <v>1</v>
       </c>
       <c r="H14" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="b">
         <v>1</v>
@@ -1843,10 +1935,10 @@
         <v>1</v>
       </c>
       <c r="O14" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="b">
         <v>1</v>
@@ -1873,10 +1965,10 @@
         <v>1</v>
       </c>
       <c r="Y14" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA14" s="3" t="b">
         <v>1</v>
@@ -1885,7 +1977,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD14" s="3" t="b">
         <v>1</v>
@@ -1894,7 +1986,7 @@
         <v>1</v>
       </c>
       <c r="AF14" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.25">
@@ -1917,10 +2009,10 @@
         <v>1</v>
       </c>
       <c r="H15" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" s="3" t="b">
         <v>1</v>
@@ -1938,10 +2030,10 @@
         <v>1</v>
       </c>
       <c r="O15" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="3" t="b">
         <v>1</v>
@@ -1968,10 +2060,10 @@
         <v>1</v>
       </c>
       <c r="Y15" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA15" s="3" t="b">
         <v>1</v>
@@ -1989,7 +2081,7 @@
         <v>1</v>
       </c>
       <c r="AF15" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.25">
@@ -2000,7 +2092,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="3" t="b">
         <v>1</v>
@@ -2012,10 +2104,10 @@
         <v>1</v>
       </c>
       <c r="H16" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" s="3" t="b">
         <v>1</v>
@@ -2033,10 +2125,10 @@
         <v>1</v>
       </c>
       <c r="O16" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="3" t="b">
         <v>1</v>
@@ -2057,16 +2149,16 @@
         <v>1</v>
       </c>
       <c r="W16" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X16" s="3" t="b">
         <v>1</v>
       </c>
       <c r="Y16" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA16" s="3" t="b">
         <v>1</v>
@@ -2084,10 +2176,10 @@
         <v>1</v>
       </c>
       <c r="AF16" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -2095,7 +2187,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" s="3" t="b">
         <v>1</v>
@@ -2107,10 +2199,10 @@
         <v>1</v>
       </c>
       <c r="H17" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" s="3" t="b">
         <v>1</v>
@@ -2128,10 +2220,10 @@
         <v>1</v>
       </c>
       <c r="O17" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="3" t="b">
         <v>1</v>
@@ -2158,10 +2250,10 @@
         <v>1</v>
       </c>
       <c r="Y17" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA17" s="3" t="b">
         <v>1</v>
@@ -2179,105 +2271,108 @@
         <v>1</v>
       </c>
       <c r="AF17" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
       <c r="C18" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R18" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S18" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T18" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U18" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V18" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W18" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X18" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y18" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA18" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB18" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC18" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD18" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF18" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -2297,10 +2392,10 @@
         <v>1</v>
       </c>
       <c r="H19" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" s="3" t="b">
         <v>1</v>
@@ -2318,10 +2413,10 @@
         <v>1</v>
       </c>
       <c r="O19" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P19" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="3" t="b">
         <v>1</v>
@@ -2348,10 +2443,10 @@
         <v>1</v>
       </c>
       <c r="Y19" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA19" s="3" t="b">
         <v>1</v>
@@ -2369,10 +2464,10 @@
         <v>1</v>
       </c>
       <c r="AF19" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -2380,7 +2475,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" s="3" t="b">
         <v>1</v>
@@ -2392,10 +2487,10 @@
         <v>1</v>
       </c>
       <c r="H20" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" s="3" t="b">
         <v>1</v>
@@ -2413,10 +2508,10 @@
         <v>1</v>
       </c>
       <c r="O20" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P20" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="3" t="b">
         <v>1</v>
@@ -2443,10 +2538,10 @@
         <v>1</v>
       </c>
       <c r="Y20" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA20" s="3" t="b">
         <v>1</v>
@@ -2464,10 +2559,10 @@
         <v>1</v>
       </c>
       <c r="AF20" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -2508,10 +2603,10 @@
         <v>1</v>
       </c>
       <c r="O21" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="3" t="b">
         <v>1</v>
@@ -2538,10 +2633,10 @@
         <v>1</v>
       </c>
       <c r="Y21" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA21" s="3" t="b">
         <v>1</v>
@@ -2559,10 +2654,13 @@
         <v>1</v>
       </c>
       <c r="AF21" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -2582,10 +2680,10 @@
         <v>1</v>
       </c>
       <c r="H22" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" s="4" t="b">
         <v>1</v>
@@ -2603,10 +2701,10 @@
         <v>1</v>
       </c>
       <c r="O22" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P22" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="4" t="b">
         <v>1</v>
@@ -2633,10 +2731,10 @@
         <v>1</v>
       </c>
       <c r="Y22" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA22" s="4" t="b">
         <v>1</v>
@@ -2654,16 +2752,16 @@
         <v>1</v>
       </c>
       <c r="AF22" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B23" s="5"/>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
     </row>
@@ -2671,7 +2769,16 @@
   <mergeCells count="1">
     <mergeCell ref="A23:B24"/>
   </mergeCells>
+  <conditionalFormatting sqref="C2:AF22">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>